--- a/hotels_list.xlsx
+++ b/hotels_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>hotel</t>
   </si>
@@ -56,22 +56,263 @@
   </si>
   <si>
     <t>Cancelación incluida</t>
+  </si>
+  <si>
+    <t>Hotel Acapulco Caucasia</t>
+  </si>
+  <si>
+    <t>COP 115.320</t>
+  </si>
+  <si>
+    <t>['8,3']</t>
+  </si>
+  <si>
+    <t>['Muy bien']</t>
+  </si>
+  <si>
+    <t>['6 comentarios']</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/searchresults.es.html?checkin=2023-10-23&amp;checkout=2023-10-24&amp;selected_currency=COP&amp;ss=CAUCASIA&amp;ssne=CAUCASIA&amp;ssne_untouched=CAUCASIA&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=2&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+  </si>
+  <si>
+    <t>CAUCASIA</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['a 500 m del centro']</t>
+  </si>
+  <si>
+    <t>['Habitación Doble']</t>
+  </si>
+  <si>
+    <t>['Habitación Doble', '', '']</t>
+  </si>
+  <si>
+    <t>['Cancelación gratis', 'Sin pago por adelantado']</t>
+  </si>
+  <si>
+    <t>HOTEL TANIA</t>
+  </si>
+  <si>
+    <t>COP 75.000</t>
+  </si>
+  <si>
+    <t>['8,7']</t>
+  </si>
+  <si>
+    <t>['Fabuloso']</t>
+  </si>
+  <si>
+    <t>['295 comentarios']</t>
+  </si>
+  <si>
+    <t>['a 0,9 km del centro']</t>
+  </si>
+  <si>
+    <t>['Habitación con cama grande']</t>
+  </si>
+  <si>
+    <t>['Habitación con cama grande', '', '']</t>
+  </si>
+  <si>
+    <t>Hotel Beijing Caucasia</t>
+  </si>
+  <si>
+    <t>COP 108.400</t>
+  </si>
+  <si>
+    <t>['7,3']</t>
+  </si>
+  <si>
+    <t>['Bien']</t>
+  </si>
+  <si>
+    <t>['3 comentarios']</t>
+  </si>
+  <si>
+    <t>['a 450 m del centro']</t>
+  </si>
+  <si>
+    <t>['Habitación Doble Estándar con ventilador']</t>
+  </si>
+  <si>
+    <t>['Habitación Doble Estándar con ventilador', 'Desayuno incluido', '', '']</t>
+  </si>
+  <si>
+    <t>Hotel y Restaurante Mesón del Gitano</t>
+  </si>
+  <si>
+    <t>COP 140.680</t>
+  </si>
+  <si>
+    <t>['7,9']</t>
+  </si>
+  <si>
+    <t>['123 comentarios']</t>
+  </si>
+  <si>
+    <t>['a 6 km del centro']</t>
+  </si>
+  <si>
+    <t>['Habitación Cuádruple - vistas al jardín']</t>
+  </si>
+  <si>
+    <t>['Habitación Cuádruple - vistas al jardín', 'Desayuno incluido', '', '']</t>
+  </si>
+  <si>
+    <t>Hotel Canoa Inn</t>
+  </si>
+  <si>
+    <t>COP 70.000</t>
+  </si>
+  <si>
+    <t>['146 comentarios']</t>
+  </si>
+  <si>
+    <t>['a 0,7 km del centro']</t>
+  </si>
+  <si>
+    <t>Casa Campo Emaus</t>
+  </si>
+  <si>
+    <t>COP 190.000</t>
+  </si>
+  <si>
+    <t>['9,1']</t>
+  </si>
+  <si>
+    <t>['Fantástico']</t>
+  </si>
+  <si>
+    <t>['149 comentarios']</t>
+  </si>
+  <si>
+    <t>['Ubicación 9,3']</t>
+  </si>
+  <si>
+    <t>['a 6,4 km del centro']</t>
+  </si>
+  <si>
+    <t>['Travel Sustainable Nivel 1']</t>
+  </si>
+  <si>
+    <t>['Habitación Doble con vistas al jardín']</t>
+  </si>
+  <si>
+    <t>['Habitación Doble con vistas al jardín', 'Desayuno incluido', '', '']</t>
+  </si>
+  <si>
+    <t>Hotel Plaza Real Montelíbano</t>
+  </si>
+  <si>
+    <t>COP 152.500</t>
+  </si>
+  <si>
+    <t>['7,4']</t>
+  </si>
+  <si>
+    <t>['68 comentarios']</t>
+  </si>
+  <si>
+    <t>['a 22,5 km de Caucasia']</t>
+  </si>
+  <si>
+    <t>['Habitación Doble', 'Desayuno incluido', '']</t>
+  </si>
+  <si>
+    <t>['Cancelación gratis']</t>
+  </si>
+  <si>
+    <t>Hotel San Francisco Real</t>
+  </si>
+  <si>
+    <t>COP 117.820</t>
+  </si>
+  <si>
+    <t>['8,5']</t>
+  </si>
+  <si>
+    <t>['29 comentarios']</t>
+  </si>
+  <si>
+    <t>['a 24,7 km de Caucasia']</t>
+  </si>
+  <si>
+    <t>HOTEL FUENTE DE ORO</t>
+  </si>
+  <si>
+    <t>COP 55.000</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['Excepcional']</t>
+  </si>
+  <si>
+    <t>['1 comentario']</t>
+  </si>
+  <si>
+    <t>https://www.booking.com/searchresults.es.html?checkin=2023-10-23&amp;checkout=2023-10-24&amp;selected_currency=COP&amp;ss=CARACOLI&amp;ssne=CARACOLI&amp;ssne_untouched=CARACOLI&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=2&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+  </si>
+  <si>
+    <t>CARACOLI</t>
+  </si>
+  <si>
+    <t>['a 5,3 km de Caracolí']</t>
+  </si>
+  <si>
+    <t>['Habitación Doble Estándar']</t>
+  </si>
+  <si>
+    <t>['Habitación Doble Estándar', '', '']</t>
+  </si>
+  <si>
+    <t>Manantiales Agradable finca con baño turco y Jaquzzi</t>
+  </si>
+  <si>
+    <t>COP 509.400</t>
+  </si>
+  <si>
+    <t>['8,0']</t>
+  </si>
+  <si>
+    <t>['2 comentarios']</t>
+  </si>
+  <si>
+    <t>['a 22,8 km de Caracolí']</t>
+  </si>
+  <si>
+    <t>['Casa de 3 dormitorios']</t>
+  </si>
+  <si>
+    <t>['Casa de 3 dormitorios', 'Casa o chalet entero • 3 dormitorios • 1 sala de estar • 2 baños • 1 cocina • 180m²', 'Casa o chalet entero', '3 dormitorios', '1 sala de estar', '2 baños', '1 cocina', '180m²']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -88,7 +329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,17 +352,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -431,29 +685,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="5.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="3" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="52.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,6 +749,446 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4">
+        <v>25568.792189930555</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4">
+        <v>25568.792189930555</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4">
+        <v>25568.792189930555</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4">
+        <v>25568.792189930555</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4">
+        <v>25568.792189930555</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4">
+        <v>25568.792189930555</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4">
+        <v>25568.792189930555</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4">
+        <v>25568.792189930555</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="4">
+        <v>25568.792189930555</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="4">
+        <v>25568.792189930555</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
